--- a/medicine/Enfance/Un_drame_au_cirque_(roman)/Un_drame_au_cirque_(roman).xlsx
+++ b/medicine/Enfance/Un_drame_au_cirque_(roman)/Un_drame_au_cirque_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un drame au cirque (titre en italien : Cinque mosche assassine) est un roman d'Edward Jones de la série « Le Trio de la Tamise », paru en 1977 en Italie et publié en France dans la Bibliothèque verte en 1982 (avec une traduction de Josette Gontier et des illustrations de François Dermaut).
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trio de la Tamise (Dave, Ted et Cathy) fait la connaissance du jeune Hakim, qui travaille dans un cirque en tant que fakir apprenti. Les jeunes gens sympathisent avec le jeune garçon, mais un drame va avoir lieu durant leur présence : le père du garçon décède brutalement, d'un arrêt cardiaque selon le médecin qui vient examiner le corps.
 Mais la présence de petits trous dans le corps du défunt laisse à penser que la mort n'est peut-être pas naturelle.
